--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-07-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="273">
   <si>
     <t>Property</t>
   </si>
@@ -1122,9 +1122,7 @@
       <c r="A13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>22</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -496,7 +496,7 @@
 使用法について注記：日本ではHOTコードを利用することが推奨される。一般的な薬剤コードとしてRxNorm、SNOMD CT, IDMPなど標準的な医薬品コードを使うことができる。国や地域に特有のローカルコードも使うことができ、他のコードに変換することもできる。</t>
   </si>
   <si>
-    <t>使われるコンテキストによるが、ユーザー(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザーインターフェース（たとえば、選択肢から特定の項目をユーザーが選択するような形式）で特定のコードをユーザーが選択したのであれば、"userSlected"に記録されてもよい」
+    <t>使われるコンテキストによるが、ユーザー(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザーインターフェース（たとえば、選択肢から特定の項目をユーザーが選択するような形式）で特定のコードをユーザーが選択したのであれば、"userSelected"に記録されてもよい」
 ユーザーが選択したコードがあれば、その選択がコード変換などで優先される。そのほかのコードは代替のコードシステムか低粒度のコード（たとえば、ベンダー固有の初期値のための一般的なコード）に文字列変換変換するしかない。</t>
   </si>
   <si>
@@ -740,8 +740,7 @@
   </si>
   <si>
     <t>この成分が薬剤の治療効果に影響するかどうかの指標
-I
-ndication of whether this ingredient affects the therapeutic action of the drug.</t>
+Indication of whether this ingredient affects the therapeutic action of the drug.</t>
   </si>
   <si>
     <t>Trueであれば、この成分が薬剤の治療効果に影響がある（たとえば有効）ということを示す。
@@ -781,7 +780,7 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>strenghtType</t>
+    <t>strengthType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="293">
   <si>
     <t>Property</t>
   </si>
@@ -605,6 +605,95 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
+    <t>Medication.form.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.form.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.form.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>Medication.amount</t>
   </si>
   <si>
@@ -646,18 +735,6 @@
     <t>Medication.ingredient.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Medication.ingredient.extension</t>
   </si>
   <si>
@@ -665,16 +742,6 @@
   </si>
   <si>
     <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>drugNo</t>
@@ -772,12 +839,6 @@
   </si>
   <si>
     <t>Medication.ingredient.strength.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>strengthType</t>
@@ -1186,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1219,7 +1280,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.0390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2927,20 +2988,18 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>189</v>
-      </c>
+      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -2989,7 +3048,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3001,13 +3060,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3018,11 +3077,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3041,16 +3100,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3088,19 +3147,19 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3112,13 +3171,13 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3129,7 +3188,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3140,7 +3199,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3149,10 +3208,10 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>198</v>
@@ -3160,8 +3219,12 @@
       <c r="L18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="M18" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3185,13 +3248,11 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3209,36 +3270,36 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3249,7 +3310,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -3258,19 +3319,23 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3306,50 +3371,50 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3358,7 +3423,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3367,18 +3432,20 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M20" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3427,25 +3494,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3456,11 +3523,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3473,26 +3540,24 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>131</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3540,7 +3605,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3552,13 +3617,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3569,7 +3634,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3577,7 +3642,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
@@ -3592,20 +3657,16 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3653,10 +3714,10 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
@@ -3665,24 +3726,24 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3693,7 +3754,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -3705,18 +3766,16 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>225</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>228</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3752,37 +3811,35 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3793,18 +3850,20 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -3816,17 +3875,15 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>231</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>233</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -3875,68 +3932,72 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -3984,25 +4045,25 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4013,18 +4074,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4036,18 +4097,20 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>240</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4083,52 +4146,50 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="AC26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>240</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4137,7 +4198,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4149,16 +4210,18 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4206,25 +4269,25 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4235,7 +4298,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4243,7 +4306,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4255,18 +4318,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>255</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4315,7 +4380,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4330,21 +4395,21 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>256</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4364,16 +4429,16 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>245</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4424,7 +4489,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4436,13 +4501,13 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4453,18 +4518,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -4476,15 +4541,17 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>256</v>
+        <v>132</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4521,37 +4588,37 @@
         <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>193</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>255</v>
+        <v>195</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4564,7 +4631,9 @@
       <c r="A31" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="B31" s="2"/>
+      <c r="B31" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4573,7 +4642,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -4585,13 +4654,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>199</v>
+        <v>263</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4642,25 +4711,25 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4671,18 +4740,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4691,20 +4760,18 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4753,25 +4820,25 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4782,43 +4849,39 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>265</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>214</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4866,25 +4929,25 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>216</v>
+        <v>273</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>128</v>
+        <v>274</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4895,7 +4958,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4918,17 +4981,15 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>265</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -4977,7 +5038,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -4995,18 +5056,18 @@
         <v>171</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>146</v>
+        <v>278</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5029,13 +5090,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>269</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5086,7 +5147,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5098,19 +5159,463 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AJ35" t="s" s="2">
+      <c r="AJ38" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>272</v>
+      <c r="AK38" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -503,7 +503,7 @@
     <t>薬品の種類を規定するコード化された概念</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode
--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -284,7 +284,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -585,13 +585,7 @@
     <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダーされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept defining the form of a medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -605,7 +599,49 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
-    <t>Medication.form.id</t>
+    <t>Medication.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>パッケージ中の薬剤の量</t>
+  </si>
+  <si>
+    <t>パッケージされた製品に含まれる薬剤固有の量。たとえば、同じ力価の製品を指定すれば（たとえば、インスリングラルギン10単位/mL注射液）、この値はパッケージ内での薬剤量（たとえば、3mL, 10mLなど）を明示することになる。</t>
+  </si>
+  <si>
+    <t>比率（Ratio)を表すデータ型は、量(Quantity)と共通単位を使って適切に表現できないときのみに使われるべきである。分母が"1"に固定されているとわかっているような場合は、量(Quantity)を比率(Ratio)の代わりに使うべきである。</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>Medication.ingredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>薬効がある、あるいは薬効を伴わない成分</t>
+  </si>
+  <si>
+    <t>この薬剤を構成する特定の重要成分を識別する</t>
+  </si>
+  <si>
+    <t>すべての成分を含む必要はない。もし、ある成分が記載されていなくてもその成分が含有されているかどうかを必ずしも意味しない。特定の成分が記載されていても、すべての成分が記載されていると言うことを意味しない。有効成分であるか、有効成分ではないかを指定することは可能である。</t>
+  </si>
+  <si>
+    <t>.scopesRole[typeCode=INGR]</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -620,128 +656,23 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Medication.form.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Medication.ingredient.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>open</t>
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Medication.form.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>Medication.form.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
-    <t>Very often the text is the same as a displayName of one of the codings.</t>
-  </si>
-  <si>
-    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>Medication.amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>パッケージ中の薬剤の量</t>
-  </si>
-  <si>
-    <t>パッケージされた製品に含まれる薬剤固有の量。たとえば、同じ力価の製品を指定すれば（たとえば、インスリングラルギン10単位/mL注射液）、この値はパッケージ内での薬剤量（たとえば、3mL, 10mLなど）を明示することになる。</t>
-  </si>
-  <si>
-    <t>比率（Ratio)を表すデータ型は、量(Quantity)と共通単位を使って適切に表現できないときのみに使われるべきである。分母が"1"に固定されているとわかっているような場合は、量(Quantity)を比率(Ratio)の代わりに使うべきである。</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>Medication.ingredient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>薬効がある、あるいは薬効を伴わない成分</t>
-  </si>
-  <si>
-    <t>この薬剤を構成する特定の重要成分を識別する</t>
-  </si>
-  <si>
-    <t>すべての成分を含む必要はない。もし、ある成分が記載されていなくてもその成分が含有されているかどうかを必ずしも意味しない。特定の成分が記載されていても、すべての成分が記載されていると言うことを意味しない。有効成分であるか、有効成分ではないかを指定することは可能である。</t>
-  </si>
-  <si>
-    <t>.scopesRole[typeCode=INGR]</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>drugNo</t>
@@ -839,6 +770,12 @@
   </si>
   <si>
     <t>Medication.ingredient.strength.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>strengthType</t>
@@ -1247,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2915,13 +2852,11 @@
         <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>76</v>
@@ -2954,21 +2889,21 @@
         <v>97</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2988,18 +2923,20 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>76</v>
@@ -3048,7 +2985,7 @@
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3060,13 +2997,13 @@
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
@@ -3077,11 +3014,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3100,16 +3037,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3147,19 +3084,19 @@
         <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3171,13 +3108,13 @@
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3188,7 +3125,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3199,7 +3136,7 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>76</v>
@@ -3208,23 +3145,19 @@
         <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>201</v>
-      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>76</v>
       </c>
@@ -3248,11 +3181,13 @@
         <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>76</v>
@@ -3270,36 +3205,36 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>205</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3310,7 +3245,7 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>76</v>
@@ -3319,23 +3254,19 @@
         <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3371,50 +3302,50 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
       </c>
@@ -3423,7 +3354,7 @@
         <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>76</v>
@@ -3432,20 +3363,18 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>76</v>
@@ -3494,25 +3423,25 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3523,11 +3452,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3540,24 +3469,26 @@
         <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>76</v>
       </c>
@@ -3605,7 +3536,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3617,13 +3548,13 @@
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3634,7 +3565,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3642,7 +3573,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>85</v>
@@ -3657,16 +3588,20 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
       </c>
@@ -3714,10 +3649,10 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>85</v>
@@ -3726,24 +3661,24 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3754,7 +3689,7 @@
         <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>76</v>
@@ -3766,16 +3701,18 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3811,35 +3748,37 @@
         <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>228</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3850,20 +3789,18 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>76</v>
@@ -3875,15 +3812,17 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>76</v>
@@ -3932,72 +3871,68 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AI24" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>131</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4045,25 +3980,25 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4074,18 +4009,18 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4097,20 +4032,18 @@
         <v>76</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4146,50 +4079,52 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>204</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>238</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4198,7 +4133,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4210,18 +4145,16 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>250</v>
-      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4269,25 +4202,25 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
@@ -4298,7 +4231,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4306,7 +4239,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
@@ -4318,20 +4251,18 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4380,7 +4311,7 @@
         <v>76</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4395,21 +4326,21 @@
         <v>97</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>257</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4429,16 +4360,16 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4489,7 +4420,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>188</v>
+        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4501,13 +4432,13 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>189</v>
+        <v>253</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
@@ -4518,18 +4449,18 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>76</v>
@@ -4541,17 +4472,15 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -4588,37 +4517,37 @@
         <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>195</v>
+        <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>189</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
@@ -4629,11 +4558,9 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>76</v>
       </c>
@@ -4642,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>76</v>
@@ -4654,13 +4581,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>261</v>
+        <v>196</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>262</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4711,25 +4638,25 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4740,18 +4667,18 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>76</v>
@@ -4760,18 +4687,20 @@
         <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>266</v>
+        <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M32" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>76</v>
@@ -4820,25 +4749,25 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>200</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4849,39 +4778,43 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>265</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>76</v>
       </c>
@@ -4929,25 +4862,25 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>273</v>
+        <v>215</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>274</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>76</v>
@@ -4958,7 +4891,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4981,15 +4914,17 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M34" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>76</v>
@@ -5038,7 +4973,7 @@
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5056,18 +4991,18 @@
         <v>171</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5090,13 +5025,13 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>268</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>269</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5147,7 +5082,7 @@
         <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5159,463 +5094,19 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>189</v>
+        <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>292</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="272">
   <si>
     <t>Property</t>
   </si>
@@ -550,7 +550,7 @@
     <t>Medication.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Organization)
 </t>
   </si>
   <si>
@@ -602,7 +602,7 @@
     <t>Medication.amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Ratio
+    <t xml:space="preserve">Ratio {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRatio_Amount}
 </t>
   </si>
   <si>
@@ -615,7 +615,15 @@
     <t>比率（Ratio)を表すデータ型は、量(Quantity)と共通単位を使って適切に表現できないときのみに使われるべきである。分母が"1"に固定されているとわかっているような場合は、量(Quantity)を比率(Ratio)の代わりに使うべきである。</t>
   </si>
   <si>
-    <t>.quantity</t>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
+    <t>RTO</t>
   </si>
   <si>
     <t>Medication.ingredient</t>
@@ -685,10 +693,6 @@
     <t>RP内の薬剤の連番</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>Medication.ingredient.modifierExtension</t>
   </si>
   <si>
@@ -760,12 +764,6 @@
     <t>Ratioデータ型は2つの数字の関係で示され、Quantityや一般的な単位で適切に表現できない関係を表すときにのみ用いられる。分母の値が「1」で固定されているような値であれば、QuantityがRatioの代わりに用いられるべきである。</t>
   </si>
   <si>
-    <t>//element(*,DrugCodedType)/Strength</t>
-  </si>
-  <si>
-    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
-  </si>
-  <si>
     <t>Medication.ingredient.strength.id</t>
   </si>
   <si>
@@ -794,35 +792,39 @@
     <t>Medication.ingredient.strength.numerator</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity
+    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationQuantity}
 </t>
   </si>
   <si>
-    <t>Numerator value</t>
-  </si>
-  <si>
-    <t>The value of the numerator.</t>
+    <t>投与量</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めたデータイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
   </si>
   <si>
-    <t>.numerator</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
+  </si>
+  <si>
+    <t>SN (see also Range) or CQ</t>
   </si>
   <si>
     <t>Medication.ingredient.strength.denominator</t>
   </si>
   <si>
-    <t>Denominator value</t>
-  </si>
-  <si>
-    <t>The value of the denominator.</t>
+    <t>パッケージ量</t>
   </si>
   <si>
     <t>Ratio.denominator</t>
-  </si>
-  <si>
-    <t>.denominator</t>
   </si>
   <si>
     <t>Medication.batch</t>
@@ -1231,7 +1233,7 @@
     <col min="36" max="36" width="195.5390625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="98.9296875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="173.4375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2923,7 +2925,7 @@
         <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>184</v>
@@ -2994,27 +2996,27 @@
         <v>85</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3037,16 +3039,16 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3096,7 +3098,7 @@
         <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>77</v>
@@ -3114,7 +3116,7 @@
         <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3125,7 +3127,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3148,13 +3150,13 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3205,7 +3207,7 @@
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>77</v>
@@ -3223,7 +3225,7 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>76</v>
@@ -3234,7 +3236,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3260,10 +3262,10 @@
         <v>131</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3302,17 +3304,17 @@
         <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>77</v>
@@ -3341,10 +3343,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>76</v>
@@ -3366,13 +3368,13 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3423,7 +3425,7 @@
         <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -3432,7 +3434,7 @@
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>136</v>
@@ -3452,11 +3454,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3478,10 +3480,10 @@
         <v>131</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>134</v>
@@ -3536,7 +3538,7 @@
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -3565,7 +3567,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3591,16 +3593,16 @@
         <v>149</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>76</v>
@@ -3649,7 +3651,7 @@
         <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>85</v>
@@ -3667,18 +3669,18 @@
         <v>155</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3701,17 +3703,17 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>76</v>
@@ -3760,7 +3762,7 @@
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -3778,7 +3780,7 @@
         <v>76</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>76</v>
@@ -3789,7 +3791,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3815,13 +3817,13 @@
         <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3871,7 +3873,7 @@
         <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>77</v>
@@ -3880,27 +3882,27 @@
         <v>85</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>189</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>234</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3923,13 +3925,13 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3980,7 +3982,7 @@
         <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>77</v>
@@ -3998,7 +4000,7 @@
         <v>76</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>76</v>
@@ -4009,7 +4011,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4038,7 +4040,7 @@
         <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
         <v>134</v>
@@ -4079,19 +4081,19 @@
         <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4109,7 +4111,7 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>76</v>
@@ -4120,10 +4122,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>76</v>
@@ -4145,13 +4147,13 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4202,7 +4204,7 @@
         <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4231,7 +4233,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4251,18 +4253,20 @@
         <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>76</v>
@@ -4320,27 +4324,27 @@
         <v>85</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4360,18 +4364,20 @@
         <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>76</v>
@@ -4420,7 +4426,7 @@
         <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4429,22 +4435,22 @@
         <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>188</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>97</v>
+        <v>248</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
@@ -4472,7 +4478,7 @@
         <v>76</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>255</v>
@@ -4581,13 +4587,13 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4638,7 +4644,7 @@
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -4656,7 +4662,7 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
@@ -4696,7 +4702,7 @@
         <v>132</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>134</v>
@@ -4749,7 +4755,7 @@
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -4767,7 +4773,7 @@
         <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>76</v>
@@ -4782,7 +4788,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -4804,10 +4810,10 @@
         <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>134</v>
@@ -4862,7 +4868,7 @@
         <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -4914,7 +4920,7 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>262</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-31</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,14 +496,14 @@
 使用法について注記：日本ではHOTコードを利用することが推奨される。一般的な薬剤コードとしてRxNorm、SNOMD CT, IDMPなど標準的な医薬品コードを使うことができる。国や地域に特有のローカルコードも使うことができ、他のコードに変換することもできる。</t>
   </si>
   <si>
-    <t>使われるコンテキストによるが、ユーザー(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザーインターフェース（たとえば、選択肢から特定の項目をユーザーが選択するような形式）で特定のコードをユーザーが選択したのであれば、"userSelected"に記録されてもよい」
-ユーザーが選択したコードがあれば、その選択がコード変換などで優先される。そのほかのコードは代替のコードシステムか低粒度のコード（たとえば、ベンダー固有の初期値のための一般的なコード）に文字列変換変換するしかない。</t>
+    <t>使われるコンテキストによるが、ユーザ(処方や調剤などを行った人）によって実際にコードが選択されたのであれば、coding.userSelectedはtrueとすることとなる。Codingのデータ型で説明されているように、「ユーザインターフェース（たとえば、選択肢から特定の項目をユーザが選択するような形式）で特定のコードをユーザが選択したのであれば、"userSelected"に記録されてもよい」
+ユーザが選択したコードがあれば、その選択がコード変換などで優先される。そのほかのコードは代替のコードシステムか低粒度のコード（たとえば、ベンダー固有の初期値のための一般的なコード）に文字列変換変換するしかない。</t>
   </si>
   <si>
     <t>薬品の種類を規定するコード化された概念</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCode_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCode_VS</t>
   </si>
   <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode@@ -528,8 +528,7 @@
     <t>active | inactive | entered-in-error</t>
   </si>
   <si>
-    <t>JP Coreでは active で固定される。
-薬剤が有効に使われているかどうかを指定するコード。</t>
+    <t>薬剤が有効に使われているかどうかを指定するコード。</t>
   </si>
   <si>
     <t>このステータスは薬剤がローカルにあるシステム内で薬剤データベースや棚卸表で有効とされているかどうかを識別するためのものである。たとえば、薬剤システムで「ABC病院特製クリーム」といった製剤のために新しい薬剤ファイルを作成されるような場合もある。未来のある時点では、薬剤記録を作成した時にエラーが発生し、ステータスが「entered-in-error」に変化することもありうる。このステータスは薬剤が特定の処方集に記載されているかどうかを指定するためのものではない。薬剤記録が複数の処方集やカタログを参照することも可能であり、それぞれの記録が異なるステータスを持つこともある。</t>
@@ -582,10 +581,10 @@
     <t>製品の剤型についての説明。散剤(powder)、錠剤(tablets)、カプセル(capsule)など。</t>
   </si>
   <si>
-    <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダーされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationFormMERIT9_VS</t>
+    <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationFormMERIT9_VS</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -1219,7 +1218,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="55.39453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.87890625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -575,10 +575,10 @@
     <t>Medication.form</t>
   </si>
   <si>
-    <t>powder | tablets | capsule +</t>
-  </si>
-  <si>
-    <t>製品の剤型についての説明。散剤(powder)、錠剤(tablets)、カプセル(capsule)など。</t>
+    <t>TAB | CAP | PWD | SYR | SUP | LQD | OIT | CRM | TPE | INJ +</t>
+  </si>
+  <si>
+    <t>TAB | CAP | PWD | SYR | SUP | LQD | OIT | CRM | TPE | INJ + 製品の剤型についての説明。散剤、ドライシロップ(PWD)、錠剤(TAB)、カプセル(CAP)など。</t>
   </si>
   <si>
     <t>もし、Medication ResourceがMedicationRequest Resourceから参照された場合は、これはオーダされた剤型である。Medication ResourceがMedicationDispense Resourceから参照された場合は、払い出された剤型である。MedicationAdministration ResourceからMedication Resourceが参照されていれば、投与された剤型である。</t>
@@ -1204,7 +1204,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="54.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -90,6 +90,9 @@
     <t>Copyright</t>
   </si>
   <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
+  </si>
+  <si>
     <t>FHIR Version</t>
   </si>
   <si>
@@ -257,10 +260,6 @@
   <si>
     <t>This resource is primarily used for the identification and definition of a medication for the purposes of prescribing, dispensing, and administering a medication as well as for making statements about medication use.
 このResourceは薬剤を処方し、払い出し（調剤）、その投与を定義し、IDを付与するためにまず利用され、薬剤の使用状態を示すためにも使われる。</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -1127,55 +1126,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1237,218 +1236,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>82</v>
@@ -1457,10 +1456,10 @@
         <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -1469,20 +1468,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>86</v>
@@ -1501,77 +1500,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -1580,20 +1579,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>86</v>
@@ -1610,77 +1609,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -1689,17 +1688,17 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>86</v>
@@ -1721,77 +1720,77 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
@@ -1800,23 +1799,23 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>105</v>
@@ -1832,26 +1831,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>109</v>
@@ -1863,46 +1862,46 @@
         <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1915,19 +1914,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>115</v>
@@ -1943,77 +1942,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>119</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2026,19 +2025,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>123</v>
@@ -2054,77 +2053,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>127</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2137,19 +2136,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>131</v>
@@ -2165,77 +2164,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2248,19 +2247,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>86</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>131</v>
@@ -2278,77 +2277,77 @@
         <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>141</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2357,20 +2356,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>86</v>
@@ -2389,68 +2388,68 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>142</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>146</v>
@@ -2459,7 +2458,7 @@
         <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -2468,20 +2467,20 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>86</v>
@@ -2500,26 +2499,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>109</v>
@@ -2531,31 +2530,31 @@
         <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>97</v>
@@ -2579,7 +2578,7 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2589,7 +2588,7 @@
         <v>85</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>86</v>
@@ -2611,26 +2610,26 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>163</v>
@@ -2642,46 +2641,46 @@
         <v>165</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -2690,20 +2689,20 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>86</v>
@@ -2720,62 +2719,62 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>97</v>
@@ -2799,23 +2798,23 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>149</v>
@@ -2831,26 +2830,26 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
         <v>109</v>
@@ -2860,31 +2859,31 @@
         <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>97</v>
@@ -2896,7 +2895,7 @@
         <v>181</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>182</v>
@@ -2908,23 +2907,23 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>184</v>
@@ -2940,56 +2939,56 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>183</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>85</v>
@@ -3001,13 +3000,13 @@
         <v>189</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>128</v>
@@ -3019,23 +3018,23 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>192</v>
@@ -3051,77 +3050,77 @@
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>191</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3130,23 +3129,23 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>198</v>
@@ -3160,77 +3159,77 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3239,23 +3238,23 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>131</v>
@@ -3269,45 +3268,45 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>206</v>
       </c>
       <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>207</v>
@@ -3316,28 +3315,28 @@
         <v>208</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3348,23 +3347,23 @@
         <v>209</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>210</v>
@@ -3378,59 +3377,59 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>188</v>
@@ -3439,16 +3438,16 @@
         <v>136</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -3461,13 +3460,13 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>86</v>
@@ -3491,77 +3490,77 @@
         <v>140</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>216</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -3570,7 +3569,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3580,13 +3579,13 @@
         <v>85</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>149</v>
@@ -3604,50 +3603,50 @@
         <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>217</v>
@@ -3659,7 +3658,7 @@
         <v>85</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>97</v>
@@ -3671,7 +3670,7 @@
         <v>222</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>223</v>
@@ -3683,23 +3682,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>225</v>
@@ -3715,77 +3714,77 @@
         <v>228</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>224</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>229</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -3794,7 +3793,7 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3804,13 +3803,13 @@
         <v>85</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>184</v>
@@ -3826,56 +3825,56 @@
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>230</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>85</v>
@@ -3887,13 +3886,13 @@
         <v>189</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>190</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>128</v>
@@ -3905,23 +3904,23 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>198</v>
@@ -3935,77 +3934,77 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4018,19 +4017,19 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>131</v>
@@ -4046,38 +4045,38 @@
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>206</v>
@@ -4086,7 +4085,7 @@
         <v>237</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>207</v>
@@ -4095,28 +4094,28 @@
         <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
@@ -4127,23 +4126,23 @@
         <v>238</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>239</v>
@@ -4157,77 +4156,77 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4236,23 +4235,23 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>243</v>
@@ -4268,56 +4267,56 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>247</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>85</v>
@@ -4329,13 +4328,13 @@
         <v>248</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>250</v>
@@ -4347,23 +4346,23 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>243</v>
@@ -4379,56 +4378,56 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>253</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>85</v>
@@ -4440,13 +4439,13 @@
         <v>248</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>250</v>
@@ -4458,23 +4457,23 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>192</v>
@@ -4488,62 +4487,62 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>254</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>97</v>
@@ -4555,10 +4554,10 @@
         <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -4567,23 +4566,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>198</v>
@@ -4597,77 +4596,77 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>201</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -4680,19 +4679,19 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>131</v>
@@ -4708,77 +4707,77 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>208</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>202</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -4791,13 +4790,13 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>86</v>
@@ -4821,77 +4820,77 @@
         <v>140</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>216</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -4900,23 +4899,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>198</v>
@@ -4932,62 +4931,62 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>261</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>97</v>
@@ -4999,7 +4998,7 @@
         <v>146</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>265</v>
@@ -5011,23 +5010,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>267</v>
@@ -5041,62 +5040,62 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>97</v>
@@ -5108,7 +5107,7 @@
         <v>270</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>271</v>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
